--- a/StructureDefinition-ObservationDepression-HPA.xlsx
+++ b/StructureDefinition-ObservationDepression-HPA.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://etatunghpa.com/StructureDefinition/ObservationDepression-HPA</t>
+    <t>https://twhpa.tsti.com/StructureDefinition/ObservationDepression-HPA</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -1114,7 +1114,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://etatunghpa.com/StructureDefinition/Patient-HPA)
+    <t xml:space="preserve">Reference(https://twhpa.tsti.com/StructureDefinition/Patient-HPA)
 </t>
   </si>
   <si>
@@ -1259,7 +1259,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://etatunghpa.com/StructureDefinition/Organization-HPA|https://etatunghpa.com/StructureDefinition/Practitioner-HPA)
+    <t xml:space="preserve">Reference(https://twhpa.tsti.com/StructureDefinition/Organization-HPA|https://twhpa.tsti.com/StructureDefinition/Practitioner-HPA)
 </t>
   </si>
   <si>
@@ -2275,7 +2275,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.68359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.4140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
